--- a/data/pca/factorExposure/factorExposure_2015-11-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01300912006714004</v>
+        <v>0.01369790015529278</v>
       </c>
       <c r="C2">
-        <v>-0.0344352241284178</v>
+        <v>0.03720099676717584</v>
       </c>
       <c r="D2">
-        <v>-0.09550794832187723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1274998379428624</v>
+      </c>
+      <c r="E2">
+        <v>0.06809840720662186</v>
+      </c>
+      <c r="F2">
+        <v>-0.03138542075857938</v>
+      </c>
+      <c r="G2">
+        <v>-0.09040062745522558</v>
+      </c>
+      <c r="H2">
+        <v>-0.0663992094422553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01478953037177693</v>
+        <v>0.009645219501487074</v>
       </c>
       <c r="C3">
-        <v>-0.05763040489248819</v>
+        <v>0.04256037133802062</v>
       </c>
       <c r="D3">
-        <v>-0.08835211012011603</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05622836024491188</v>
+      </c>
+      <c r="E3">
+        <v>0.04710967918043484</v>
+      </c>
+      <c r="F3">
+        <v>-0.05992369149756534</v>
+      </c>
+      <c r="G3">
+        <v>-0.1059952401964383</v>
+      </c>
+      <c r="H3">
+        <v>-0.009986718692538765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04839307703604365</v>
+        <v>0.05173089789519603</v>
       </c>
       <c r="C4">
-        <v>-0.05502132632235845</v>
+        <v>0.06993476017877501</v>
       </c>
       <c r="D4">
-        <v>-0.126824151863228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1473460429781298</v>
+      </c>
+      <c r="E4">
+        <v>0.05391303314236934</v>
+      </c>
+      <c r="F4">
+        <v>-0.02281654416410208</v>
+      </c>
+      <c r="G4">
+        <v>0.04577656722026283</v>
+      </c>
+      <c r="H4">
+        <v>-0.01244833223861745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03936866287432921</v>
+        <v>0.03928381143461908</v>
       </c>
       <c r="C6">
-        <v>-0.01832814715231869</v>
+        <v>0.02851606065755576</v>
       </c>
       <c r="D6">
-        <v>-0.1420020785592401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1421670275580543</v>
+      </c>
+      <c r="E6">
+        <v>0.02641732333565482</v>
+      </c>
+      <c r="F6">
+        <v>-0.01792004141480549</v>
+      </c>
+      <c r="G6">
+        <v>-0.008941109576685164</v>
+      </c>
+      <c r="H6">
+        <v>-0.05165415160204143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01589190961705617</v>
+        <v>0.01301408422581054</v>
       </c>
       <c r="C7">
-        <v>-0.02573486653653306</v>
+        <v>0.03398391362762983</v>
       </c>
       <c r="D7">
-        <v>-0.1042226442938204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09749685011509619</v>
+      </c>
+      <c r="E7">
+        <v>0.0218967339606958</v>
+      </c>
+      <c r="F7">
+        <v>-0.02326717108410068</v>
+      </c>
+      <c r="G7">
+        <v>-0.02978363755121263</v>
+      </c>
+      <c r="H7">
+        <v>-0.06667706901948539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.007958437559144521</v>
+        <v>0.006189306950356655</v>
       </c>
       <c r="C8">
-        <v>-0.02876660684251705</v>
+        <v>0.03870363105800804</v>
       </c>
       <c r="D8">
-        <v>-0.06331723985530227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08087602310608438</v>
+      </c>
+      <c r="E8">
+        <v>0.0308036263882781</v>
+      </c>
+      <c r="F8">
+        <v>-0.04494853565204225</v>
+      </c>
+      <c r="G8">
+        <v>-0.02679934055113128</v>
+      </c>
+      <c r="H8">
+        <v>-0.03488725845016783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04071435632284565</v>
+        <v>0.04144548201678207</v>
       </c>
       <c r="C9">
-        <v>-0.05222179286505677</v>
+        <v>0.0652120221402972</v>
       </c>
       <c r="D9">
-        <v>-0.1101333767296648</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1217588581827995</v>
+      </c>
+      <c r="E9">
+        <v>0.04011796501201114</v>
+      </c>
+      <c r="F9">
+        <v>-0.006144012475005793</v>
+      </c>
+      <c r="G9">
+        <v>0.02449593413433163</v>
+      </c>
+      <c r="H9">
+        <v>-0.01455493656627818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1116639004506203</v>
+        <v>0.1453152047065522</v>
       </c>
       <c r="C10">
-        <v>0.1873839561746423</v>
+        <v>-0.1881626203961449</v>
       </c>
       <c r="D10">
-        <v>0.002082634203552019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.00735156823790501</v>
+      </c>
+      <c r="E10">
+        <v>0.04709335592839691</v>
+      </c>
+      <c r="F10">
+        <v>-0.03468567216971274</v>
+      </c>
+      <c r="G10">
+        <v>0.02505087951889353</v>
+      </c>
+      <c r="H10">
+        <v>0.03269313496494287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03032050314446498</v>
+        <v>0.02809717897306996</v>
       </c>
       <c r="C11">
-        <v>-0.03919355954149865</v>
+        <v>0.04436069445054858</v>
       </c>
       <c r="D11">
-        <v>-0.05883706824010219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05849541634484975</v>
+      </c>
+      <c r="E11">
+        <v>-0.006545200707063911</v>
+      </c>
+      <c r="F11">
+        <v>-0.003294624394145568</v>
+      </c>
+      <c r="G11">
+        <v>-0.01265140736940652</v>
+      </c>
+      <c r="H11">
+        <v>-0.03058239498413725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03685670395598636</v>
+        <v>0.03357446039159701</v>
       </c>
       <c r="C12">
-        <v>-0.04190126684719837</v>
+        <v>0.04708372103874148</v>
       </c>
       <c r="D12">
-        <v>-0.06152299023690972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05733986908724734</v>
+      </c>
+      <c r="E12">
+        <v>0.0001548571051657349</v>
+      </c>
+      <c r="F12">
+        <v>0.005898705631490806</v>
+      </c>
+      <c r="G12">
+        <v>-0.01909228612651755</v>
+      </c>
+      <c r="H12">
+        <v>-0.02662063804205533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01267887531045939</v>
+        <v>0.01737592652029299</v>
       </c>
       <c r="C13">
-        <v>-0.03352966694346949</v>
+        <v>0.03972870261858803</v>
       </c>
       <c r="D13">
-        <v>-0.1329100941554076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1526114049092986</v>
+      </c>
+      <c r="E13">
+        <v>0.03613162017912722</v>
+      </c>
+      <c r="F13">
+        <v>-0.04673582504959061</v>
+      </c>
+      <c r="G13">
+        <v>-0.0310267487574746</v>
+      </c>
+      <c r="H13">
+        <v>-0.05863083032690492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.003391040056245235</v>
+        <v>0.006525161932291527</v>
       </c>
       <c r="C14">
-        <v>-0.0192056194688417</v>
+        <v>0.02315209053632458</v>
       </c>
       <c r="D14">
-        <v>-0.08888933136894346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09474165919764591</v>
+      </c>
+      <c r="E14">
+        <v>0.03063341705166931</v>
+      </c>
+      <c r="F14">
+        <v>-0.003538636792479041</v>
+      </c>
+      <c r="G14">
+        <v>-0.0337970383257855</v>
+      </c>
+      <c r="H14">
+        <v>-0.08497602219850335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002825294235108848</v>
+        <v>0.001133580431745339</v>
       </c>
       <c r="C15">
-        <v>-0.002269351405136711</v>
+        <v>0.01191364729967605</v>
       </c>
       <c r="D15">
-        <v>-0.002660105172726186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03539207565383985</v>
+      </c>
+      <c r="E15">
+        <v>0.008649035256588731</v>
+      </c>
+      <c r="F15">
+        <v>0.001186308087948937</v>
+      </c>
+      <c r="G15">
+        <v>-0.00990258801574413</v>
+      </c>
+      <c r="H15">
+        <v>-0.016255121645916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03060406043380192</v>
+        <v>0.02923582416948149</v>
       </c>
       <c r="C16">
-        <v>-0.04247176744878082</v>
+        <v>0.04514155881360053</v>
       </c>
       <c r="D16">
-        <v>-0.06777056120162475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06360160943249213</v>
+      </c>
+      <c r="E16">
+        <v>0.005726343976869939</v>
+      </c>
+      <c r="F16">
+        <v>0.004959012435645139</v>
+      </c>
+      <c r="G16">
+        <v>-0.01481922869088321</v>
+      </c>
+      <c r="H16">
+        <v>-0.04394600764398623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00603378375060732</v>
+        <v>0.004532490842404513</v>
       </c>
       <c r="C19">
-        <v>-0.0306337165249013</v>
+        <v>0.0241844353507768</v>
       </c>
       <c r="D19">
-        <v>-0.153765946219926</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1178812409840348</v>
+      </c>
+      <c r="E19">
+        <v>0.05956990851754116</v>
+      </c>
+      <c r="F19">
+        <v>0.007750583828706765</v>
+      </c>
+      <c r="G19">
+        <v>-0.03926552600497903</v>
+      </c>
+      <c r="H19">
+        <v>-0.02733360875469893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01298951333250905</v>
+        <v>0.0150947010778579</v>
       </c>
       <c r="C20">
-        <v>-0.03068313952510964</v>
+        <v>0.03468530521960911</v>
       </c>
       <c r="D20">
-        <v>-0.08634990465476858</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1017667240737513</v>
+      </c>
+      <c r="E20">
+        <v>0.04996342736317608</v>
+      </c>
+      <c r="F20">
+        <v>-0.002599023135133782</v>
+      </c>
+      <c r="G20">
+        <v>-0.01250136828096565</v>
+      </c>
+      <c r="H20">
+        <v>-0.04859493449142298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004677793338870433</v>
+        <v>0.008825814908235785</v>
       </c>
       <c r="C21">
-        <v>-0.02880988855508221</v>
+        <v>0.03714986909074173</v>
       </c>
       <c r="D21">
-        <v>-0.1325863683833835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1429010861777135</v>
+      </c>
+      <c r="E21">
+        <v>0.07998490494958996</v>
+      </c>
+      <c r="F21">
+        <v>-0.01290204100929213</v>
+      </c>
+      <c r="G21">
+        <v>-0.009770677226185458</v>
+      </c>
+      <c r="H21">
+        <v>-0.05370068540750909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.003799009286301706</v>
+        <v>0.005314283589312312</v>
       </c>
       <c r="C22">
-        <v>-0.03120944037778504</v>
+        <v>0.04257567709180742</v>
       </c>
       <c r="D22">
-        <v>-0.09862789841777943</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1558082667530847</v>
+      </c>
+      <c r="E22">
+        <v>0.02843908222393496</v>
+      </c>
+      <c r="F22">
+        <v>-0.08706366919862184</v>
+      </c>
+      <c r="G22">
+        <v>-0.05416218669512154</v>
+      </c>
+      <c r="H22">
+        <v>-0.008081954536927723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.003913599553290361</v>
+        <v>0.005428375231233635</v>
       </c>
       <c r="C23">
-        <v>-0.0311772264484792</v>
+        <v>0.04306557749581905</v>
       </c>
       <c r="D23">
-        <v>-0.09790981409790392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1551612098413215</v>
+      </c>
+      <c r="E23">
+        <v>0.02888098340163897</v>
+      </c>
+      <c r="F23">
+        <v>-0.08701502667697845</v>
+      </c>
+      <c r="G23">
+        <v>-0.05322407586024011</v>
+      </c>
+      <c r="H23">
+        <v>-0.007767166597834804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03388546782017913</v>
+        <v>0.03071625859607038</v>
       </c>
       <c r="C24">
-        <v>-0.05146017287021168</v>
+        <v>0.05710706471406356</v>
       </c>
       <c r="D24">
-        <v>-0.06658138460297901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06645266255087549</v>
+      </c>
+      <c r="E24">
+        <v>0.01128397877866879</v>
+      </c>
+      <c r="F24">
+        <v>0.001575731290146175</v>
+      </c>
+      <c r="G24">
+        <v>-0.01089404877047456</v>
+      </c>
+      <c r="H24">
+        <v>-0.04974278192631994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03706138832541999</v>
+        <v>0.0345786101996386</v>
       </c>
       <c r="C25">
-        <v>-0.05086567142247702</v>
+        <v>0.05451170071713753</v>
       </c>
       <c r="D25">
-        <v>-0.06588621054590686</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06252833630335465</v>
+      </c>
+      <c r="E25">
+        <v>0.01186896560502886</v>
+      </c>
+      <c r="F25">
+        <v>-0.002788666803346715</v>
+      </c>
+      <c r="G25">
+        <v>-0.01100548971132261</v>
+      </c>
+      <c r="H25">
+        <v>-0.02165248945816498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01645561012718944</v>
+        <v>0.01812042001418199</v>
       </c>
       <c r="C26">
-        <v>-0.009308836170682592</v>
+        <v>0.01724840948546342</v>
       </c>
       <c r="D26">
-        <v>-0.05993015720858452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06732779189693534</v>
+      </c>
+      <c r="E26">
+        <v>0.02204577037664806</v>
+      </c>
+      <c r="F26">
+        <v>-0.009548109697059604</v>
+      </c>
+      <c r="G26">
+        <v>-0.01854528516504212</v>
+      </c>
+      <c r="H26">
+        <v>-0.05604618703524931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1593425288109838</v>
+        <v>0.2063374042613808</v>
       </c>
       <c r="C28">
-        <v>0.2561901514773954</v>
+        <v>-0.2511757808415545</v>
       </c>
       <c r="D28">
-        <v>0.02938071110988702</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01093444658829753</v>
+      </c>
+      <c r="E28">
+        <v>0.07754735501360886</v>
+      </c>
+      <c r="F28">
+        <v>-0.01742025303558895</v>
+      </c>
+      <c r="G28">
+        <v>0.04991041961781482</v>
+      </c>
+      <c r="H28">
+        <v>0.03510572501760048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001994976623671947</v>
+        <v>0.004356302605833983</v>
       </c>
       <c r="C29">
-        <v>-0.01916249864786223</v>
+        <v>0.02210205459469551</v>
       </c>
       <c r="D29">
-        <v>-0.07364092446956295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09291915948227981</v>
+      </c>
+      <c r="E29">
+        <v>0.02515293932302676</v>
+      </c>
+      <c r="F29">
+        <v>-0.01904208575366589</v>
+      </c>
+      <c r="G29">
+        <v>-0.01897396341369407</v>
+      </c>
+      <c r="H29">
+        <v>-0.08775014917070632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02881788209801389</v>
+        <v>0.03789779482016853</v>
       </c>
       <c r="C30">
-        <v>-0.04199124778801129</v>
+        <v>0.06136682971324783</v>
       </c>
       <c r="D30">
-        <v>-0.1566066491066566</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1720253052900908</v>
+      </c>
+      <c r="E30">
+        <v>0.02271195048109593</v>
+      </c>
+      <c r="F30">
+        <v>-0.006967908364233016</v>
+      </c>
+      <c r="G30">
+        <v>-0.003716572774518091</v>
+      </c>
+      <c r="H30">
+        <v>-0.0753236761314445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06083057283490925</v>
+        <v>0.05285816066562366</v>
       </c>
       <c r="C31">
-        <v>-0.05957488886379557</v>
+        <v>0.07560068992016543</v>
       </c>
       <c r="D31">
-        <v>-0.06906656927986653</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05414030364632978</v>
+      </c>
+      <c r="E31">
+        <v>0.02952308252175333</v>
+      </c>
+      <c r="F31">
+        <v>-0.03506741796539528</v>
+      </c>
+      <c r="G31">
+        <v>0.001195581782873713</v>
+      </c>
+      <c r="H31">
+        <v>-0.01043059271401712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.007571882757847192</v>
+        <v>0.01568392585802115</v>
       </c>
       <c r="C32">
-        <v>-0.01397188672222559</v>
+        <v>0.01562281701338142</v>
       </c>
       <c r="D32">
-        <v>-0.0684996571847864</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1126279980014199</v>
+      </c>
+      <c r="E32">
+        <v>0.08991369695922867</v>
+      </c>
+      <c r="F32">
+        <v>-0.03237081987305598</v>
+      </c>
+      <c r="G32">
+        <v>-0.01443709158303879</v>
+      </c>
+      <c r="H32">
+        <v>-0.05051256432590477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02214227858152719</v>
+        <v>0.0239864346903425</v>
       </c>
       <c r="C33">
-        <v>-0.03226841862203342</v>
+        <v>0.04290481156476218</v>
       </c>
       <c r="D33">
-        <v>-0.1344903362539291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1346230276981386</v>
+      </c>
+      <c r="E33">
+        <v>0.04123086829604006</v>
+      </c>
+      <c r="F33">
+        <v>-0.01820455284156638</v>
+      </c>
+      <c r="G33">
+        <v>-0.02234602438506414</v>
+      </c>
+      <c r="H33">
+        <v>-0.04976916771961898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03185375712320037</v>
+        <v>0.02709955610703826</v>
       </c>
       <c r="C34">
-        <v>-0.06221079688195291</v>
+        <v>0.06187196494202125</v>
       </c>
       <c r="D34">
-        <v>-0.06810817335840633</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05570515131384465</v>
+      </c>
+      <c r="E34">
+        <v>-0.00562592846661941</v>
+      </c>
+      <c r="F34">
+        <v>0.006493823183849416</v>
+      </c>
+      <c r="G34">
+        <v>-0.02412250505074699</v>
+      </c>
+      <c r="H34">
+        <v>-0.0339368022682443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0007733186171243273</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009176189653955771</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.006759129933441908</v>
+      </c>
+      <c r="E35">
+        <v>-0.0005250636094774529</v>
+      </c>
+      <c r="F35">
+        <v>-0.001205306754558912</v>
+      </c>
+      <c r="G35">
+        <v>-0.002117843765535264</v>
+      </c>
+      <c r="H35">
+        <v>-0.004037322291292007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.019376689463463</v>
+        <v>0.01952477106596922</v>
       </c>
       <c r="C36">
-        <v>-0.005134562133767288</v>
+        <v>0.01482511055640761</v>
       </c>
       <c r="D36">
-        <v>-0.07552447146129995</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07814333081269748</v>
+      </c>
+      <c r="E36">
+        <v>0.02882194734161004</v>
+      </c>
+      <c r="F36">
+        <v>-0.007384649063305216</v>
+      </c>
+      <c r="G36">
+        <v>-0.003331487878737492</v>
+      </c>
+      <c r="H36">
+        <v>-0.04763661818156832</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01909259684004599</v>
+        <v>0.02025833577678835</v>
       </c>
       <c r="C38">
-        <v>-0.01745346446798236</v>
+        <v>0.02066427747919476</v>
       </c>
       <c r="D38">
-        <v>-0.05862318411467563</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06342027465048841</v>
+      </c>
+      <c r="E38">
+        <v>0.03489434293263256</v>
+      </c>
+      <c r="F38">
+        <v>0.005465026493222777</v>
+      </c>
+      <c r="G38">
+        <v>-0.04507972027006264</v>
+      </c>
+      <c r="H38">
+        <v>-0.02355842803086797</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03623348437713487</v>
+        <v>0.03433596110628796</v>
       </c>
       <c r="C39">
-        <v>-0.05149441614638559</v>
+        <v>0.06782398501498529</v>
       </c>
       <c r="D39">
-        <v>-0.08839979341137605</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1027302574225723</v>
+      </c>
+      <c r="E39">
+        <v>0.004618964921151907</v>
+      </c>
+      <c r="F39">
+        <v>0.02512902651411226</v>
+      </c>
+      <c r="G39">
+        <v>-0.0185344478625448</v>
+      </c>
+      <c r="H39">
+        <v>-0.08420971979245621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01539677662951928</v>
+        <v>0.01170842948959426</v>
       </c>
       <c r="C40">
-        <v>-0.04339077033449493</v>
+        <v>0.04038096030321439</v>
       </c>
       <c r="D40">
-        <v>-0.07352500583868239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08334286847960565</v>
+      </c>
+      <c r="E40">
+        <v>0.05759314279321429</v>
+      </c>
+      <c r="F40">
+        <v>-0.08014674584392863</v>
+      </c>
+      <c r="G40">
+        <v>-0.1130782698327989</v>
+      </c>
+      <c r="H40">
+        <v>-0.08064572473999461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02416791695234646</v>
+        <v>0.02360948713433718</v>
       </c>
       <c r="C41">
-        <v>-0.0002826832706946426</v>
+        <v>0.008799602832909705</v>
       </c>
       <c r="D41">
-        <v>-0.06899751338975438</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0571315795894101</v>
+      </c>
+      <c r="E41">
+        <v>0.05250279835000794</v>
+      </c>
+      <c r="F41">
+        <v>-0.006426521002347621</v>
+      </c>
+      <c r="G41">
+        <v>-0.02839590334387096</v>
+      </c>
+      <c r="H41">
+        <v>-0.02660022784735629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02784660393824133</v>
+        <v>0.02351223352085753</v>
       </c>
       <c r="C43">
-        <v>-0.01305515547703795</v>
+        <v>0.0187301770473373</v>
       </c>
       <c r="D43">
-        <v>-0.1077296396524562</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08615614267953846</v>
+      </c>
+      <c r="E43">
+        <v>0.02933146939586429</v>
+      </c>
+      <c r="F43">
+        <v>-0.008123100849988194</v>
+      </c>
+      <c r="G43">
+        <v>-0.03338074875969035</v>
+      </c>
+      <c r="H43">
+        <v>-0.03313524735336758</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01271205104492093</v>
+        <v>0.01564429669630972</v>
       </c>
       <c r="C44">
-        <v>-0.04309744022595569</v>
+        <v>0.04234798567817857</v>
       </c>
       <c r="D44">
-        <v>-0.07921436700158661</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.103203905911291</v>
+      </c>
+      <c r="E44">
+        <v>0.06221625915183377</v>
+      </c>
+      <c r="F44">
+        <v>-0.01667138349423704</v>
+      </c>
+      <c r="G44">
+        <v>-0.0256006193345932</v>
+      </c>
+      <c r="H44">
+        <v>-0.04673123387361686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01305904324053974</v>
+        <v>0.01285334980342368</v>
       </c>
       <c r="C46">
-        <v>-0.02338048301932382</v>
+        <v>0.03009307542274412</v>
       </c>
       <c r="D46">
-        <v>-0.08200452395873159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08842559707613201</v>
+      </c>
+      <c r="E46">
+        <v>0.03082047421957366</v>
+      </c>
+      <c r="F46">
+        <v>0.007571214780498783</v>
+      </c>
+      <c r="G46">
+        <v>-0.01537406958186916</v>
+      </c>
+      <c r="H46">
+        <v>-0.07023114540269475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09165280204907587</v>
+        <v>0.08058236611767576</v>
       </c>
       <c r="C47">
-        <v>-0.07803804508588984</v>
+        <v>0.09207380863006244</v>
       </c>
       <c r="D47">
-        <v>-0.04472571161084854</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03382751572939939</v>
+      </c>
+      <c r="E47">
+        <v>0.03508244349575744</v>
+      </c>
+      <c r="F47">
+        <v>-0.01971298550392861</v>
+      </c>
+      <c r="G47">
+        <v>0.01384277139096511</v>
+      </c>
+      <c r="H47">
+        <v>0.0673708167204891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01153054685707396</v>
+        <v>0.01450107842128004</v>
       </c>
       <c r="C48">
-        <v>-0.01457571396292448</v>
+        <v>0.01997191517421139</v>
       </c>
       <c r="D48">
-        <v>-0.06312169976685444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07193621672307901</v>
+      </c>
+      <c r="E48">
+        <v>0.05014160289742379</v>
+      </c>
+      <c r="F48">
+        <v>-0.002012089757794593</v>
+      </c>
+      <c r="G48">
+        <v>-0.004572531679403654</v>
+      </c>
+      <c r="H48">
+        <v>-0.04889067402301362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05584617944761004</v>
+        <v>0.04995121731966123</v>
       </c>
       <c r="C50">
-        <v>-0.05789982056626684</v>
+        <v>0.0688306589228381</v>
       </c>
       <c r="D50">
-        <v>-0.06086857528536029</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05399851401147613</v>
+      </c>
+      <c r="E50">
+        <v>0.04036349789652369</v>
+      </c>
+      <c r="F50">
+        <v>-0.03649855700757285</v>
+      </c>
+      <c r="G50">
+        <v>-0.03120254261373034</v>
+      </c>
+      <c r="H50">
+        <v>-0.004485552129141199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009867314861835284</v>
+        <v>0.01075614111854946</v>
       </c>
       <c r="C51">
-        <v>-0.01398286130129841</v>
+        <v>0.01905806732359943</v>
       </c>
       <c r="D51">
-        <v>-0.07817905952508244</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09060920021053555</v>
+      </c>
+      <c r="E51">
+        <v>0.01562576766459412</v>
+      </c>
+      <c r="F51">
+        <v>-0.01036094942698361</v>
+      </c>
+      <c r="G51">
+        <v>-0.02722925237799768</v>
+      </c>
+      <c r="H51">
+        <v>-0.08000745620945959</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08672381514325336</v>
+        <v>0.08499291049202234</v>
       </c>
       <c r="C53">
-        <v>-0.0890350771520214</v>
+        <v>0.1026985026934637</v>
       </c>
       <c r="D53">
-        <v>-0.001041461805904799</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01324339283537538</v>
+      </c>
+      <c r="E53">
+        <v>0.1111057592462561</v>
+      </c>
+      <c r="F53">
+        <v>-0.05353391482579592</v>
+      </c>
+      <c r="G53">
+        <v>0.07284344779129612</v>
+      </c>
+      <c r="H53">
+        <v>0.0118699588998651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02429115353000821</v>
+        <v>0.02506478899283821</v>
       </c>
       <c r="C54">
-        <v>-0.02974568276616467</v>
+        <v>0.03436704129094546</v>
       </c>
       <c r="D54">
-        <v>-0.09671050580676675</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09073552251775388</v>
+      </c>
+      <c r="E54">
+        <v>0.03681019057485891</v>
+      </c>
+      <c r="F54">
+        <v>0.004461162373861385</v>
+      </c>
+      <c r="G54">
+        <v>-0.04969690154593558</v>
+      </c>
+      <c r="H54">
+        <v>-0.06148818641312774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08844395441198286</v>
+        <v>0.08328021209556791</v>
       </c>
       <c r="C55">
-        <v>-0.06363158966425253</v>
+        <v>0.08072697160339012</v>
       </c>
       <c r="D55">
-        <v>0.01320779812552614</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.006271246777758332</v>
+      </c>
+      <c r="E55">
+        <v>0.05912689381519964</v>
+      </c>
+      <c r="F55">
+        <v>-0.04475171530986793</v>
+      </c>
+      <c r="G55">
+        <v>0.03964206688276189</v>
+      </c>
+      <c r="H55">
+        <v>0.00531735787538367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.138811161928154</v>
+        <v>0.1297425829264492</v>
       </c>
       <c r="C56">
-        <v>-0.100011231671938</v>
+        <v>0.1274215655779999</v>
       </c>
       <c r="D56">
-        <v>0.004746993290039226</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.008323502984593969</v>
+      </c>
+      <c r="E56">
+        <v>0.0617513543685075</v>
+      </c>
+      <c r="F56">
+        <v>-0.03925416077181922</v>
+      </c>
+      <c r="G56">
+        <v>0.02540977848890837</v>
+      </c>
+      <c r="H56">
+        <v>0.04815635163208468</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.007907837489999436</v>
+        <v>0.01973837793970814</v>
       </c>
       <c r="C58">
-        <v>-0.003863661429264847</v>
+        <v>0.03178193657126803</v>
       </c>
       <c r="D58">
-        <v>-0.2922961846787189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3439614690641567</v>
+      </c>
+      <c r="E58">
+        <v>0.1884372095763654</v>
+      </c>
+      <c r="F58">
+        <v>-0.1023838735315055</v>
+      </c>
+      <c r="G58">
+        <v>-0.08367496808220254</v>
+      </c>
+      <c r="H58">
+        <v>-0.0396562014459736</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1472845697364688</v>
+        <v>0.1815087261822449</v>
       </c>
       <c r="C59">
-        <v>0.1841716280458008</v>
+        <v>-0.1677873874994474</v>
       </c>
       <c r="D59">
-        <v>-0.03470475502511339</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05252610989454366</v>
+      </c>
+      <c r="E59">
+        <v>0.02107782745640007</v>
+      </c>
+      <c r="F59">
+        <v>0.0399036891588279</v>
+      </c>
+      <c r="G59">
+        <v>0.006700748996861834</v>
+      </c>
+      <c r="H59">
+        <v>0.01894669382775093</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2430725687065052</v>
+        <v>0.2258087335692656</v>
       </c>
       <c r="C60">
-        <v>-0.06996064099708718</v>
+        <v>0.104205947450939</v>
       </c>
       <c r="D60">
-        <v>-0.2101112345679553</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1238357699842794</v>
+      </c>
+      <c r="E60">
+        <v>-0.3609592270040192</v>
+      </c>
+      <c r="F60">
+        <v>-0.00704040797109461</v>
+      </c>
+      <c r="G60">
+        <v>0.06768897329114927</v>
+      </c>
+      <c r="H60">
+        <v>0.1001978592900556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04277549991565369</v>
+        <v>0.03952087377947217</v>
       </c>
       <c r="C61">
-        <v>-0.05176287407112484</v>
+        <v>0.06248046079230223</v>
       </c>
       <c r="D61">
-        <v>-0.1029215198755887</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09340456561265059</v>
+      </c>
+      <c r="E61">
+        <v>-0.002727799417516572</v>
+      </c>
+      <c r="F61">
+        <v>0.01707001331397717</v>
+      </c>
+      <c r="G61">
+        <v>-0.01421045600866629</v>
+      </c>
+      <c r="H61">
+        <v>-0.04405695117740255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01450456107762312</v>
+        <v>0.01472154125772635</v>
       </c>
       <c r="C63">
-        <v>-0.02288759389310929</v>
+        <v>0.0319203137931954</v>
       </c>
       <c r="D63">
-        <v>-0.06371359465552971</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06929676777681854</v>
+      </c>
+      <c r="E63">
+        <v>0.02700930797982854</v>
+      </c>
+      <c r="F63">
+        <v>-0.02027938767658911</v>
+      </c>
+      <c r="G63">
+        <v>-0.01212954801014103</v>
+      </c>
+      <c r="H63">
+        <v>-0.05429173348933458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05759855266256577</v>
+        <v>0.05125586692762717</v>
       </c>
       <c r="C64">
-        <v>-0.06781583459610324</v>
+        <v>0.08308728868263569</v>
       </c>
       <c r="D64">
-        <v>-0.05816223003632071</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05494476875611806</v>
+      </c>
+      <c r="E64">
+        <v>0.02276480353245526</v>
+      </c>
+      <c r="F64">
+        <v>0.0148378178374112</v>
+      </c>
+      <c r="G64">
+        <v>0.04184214299300663</v>
+      </c>
+      <c r="H64">
+        <v>-0.04269893196409133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04376359980161999</v>
+        <v>0.04292917973397881</v>
       </c>
       <c r="C65">
-        <v>-0.01358270857893937</v>
+        <v>0.02744111665501101</v>
       </c>
       <c r="D65">
-        <v>-0.1254223997929005</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1224075359073904</v>
+      </c>
+      <c r="E65">
+        <v>0.001209551969445184</v>
+      </c>
+      <c r="F65">
+        <v>-0.01251698503212715</v>
+      </c>
+      <c r="G65">
+        <v>-0.01761415480698589</v>
+      </c>
+      <c r="H65">
+        <v>-0.0153874386845248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04119562555812327</v>
+        <v>0.03895104178055724</v>
       </c>
       <c r="C66">
-        <v>-0.05804970898007557</v>
+        <v>0.07724685203521471</v>
       </c>
       <c r="D66">
-        <v>-0.1089552847819327</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1295648182421125</v>
+      </c>
+      <c r="E66">
+        <v>0.009438965940048692</v>
+      </c>
+      <c r="F66">
+        <v>0.01366066996120468</v>
+      </c>
+      <c r="G66">
+        <v>-0.02600853656664168</v>
+      </c>
+      <c r="H66">
+        <v>-0.0537477024852696</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03949338052470046</v>
+        <v>0.03751970367091891</v>
       </c>
       <c r="C67">
-        <v>-0.02187531343715756</v>
+        <v>0.0273611499717347</v>
       </c>
       <c r="D67">
-        <v>-0.02925486490634983</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02356874605601296</v>
+      </c>
+      <c r="E67">
+        <v>0.01308448982483692</v>
+      </c>
+      <c r="F67">
+        <v>0.005871638172039026</v>
+      </c>
+      <c r="G67">
+        <v>-0.04086047739352058</v>
+      </c>
+      <c r="H67">
+        <v>-0.02311648983442377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.170659762951834</v>
+        <v>0.1986114750054603</v>
       </c>
       <c r="C68">
-        <v>0.2261981674182459</v>
+        <v>-0.1940993359183352</v>
       </c>
       <c r="D68">
-        <v>0.005599760627765102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0178354102128013</v>
+      </c>
+      <c r="E68">
+        <v>0.04760231772107886</v>
+      </c>
+      <c r="F68">
+        <v>-0.03567247910579886</v>
+      </c>
+      <c r="G68">
+        <v>-0.007304748313222607</v>
+      </c>
+      <c r="H68">
+        <v>-0.0184929070689508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0826395961060522</v>
+        <v>0.07240305461085932</v>
       </c>
       <c r="C69">
-        <v>-0.08931119552574453</v>
+        <v>0.09882496092707987</v>
       </c>
       <c r="D69">
-        <v>-0.06845145735860066</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04891793676064527</v>
+      </c>
+      <c r="E69">
+        <v>0.0227745756563072</v>
+      </c>
+      <c r="F69">
+        <v>-0.0100368202632735</v>
+      </c>
+      <c r="G69">
+        <v>0.01024586712672432</v>
+      </c>
+      <c r="H69">
+        <v>0.0278020524343869</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1508696765605568</v>
+        <v>0.1866439931667979</v>
       </c>
       <c r="C71">
-        <v>0.2293954328773027</v>
+        <v>-0.2069561517693616</v>
       </c>
       <c r="D71">
-        <v>-0.0263475285160479</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.04385840842142762</v>
+      </c>
+      <c r="E71">
+        <v>0.05215419137095285</v>
+      </c>
+      <c r="F71">
+        <v>-0.03954671535459493</v>
+      </c>
+      <c r="G71">
+        <v>0.002017301681011481</v>
+      </c>
+      <c r="H71">
+        <v>0.01951914831623133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1034891528497082</v>
+        <v>0.09822308927416976</v>
       </c>
       <c r="C72">
-        <v>-0.04624126404576957</v>
+        <v>0.07741979488567724</v>
       </c>
       <c r="D72">
-        <v>-0.08624642917444443</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09362660367411622</v>
+      </c>
+      <c r="E72">
+        <v>-0.03629350955381717</v>
+      </c>
+      <c r="F72">
+        <v>-0.03531719207876262</v>
+      </c>
+      <c r="G72">
+        <v>0.02432227767000716</v>
+      </c>
+      <c r="H72">
+        <v>-0.05670431087989131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2593994946424662</v>
+        <v>0.2379796613936285</v>
       </c>
       <c r="C73">
-        <v>-0.03658764382887977</v>
+        <v>0.09145336535884974</v>
       </c>
       <c r="D73">
-        <v>-0.3107412711937633</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1605490938922685</v>
+      </c>
+      <c r="E73">
+        <v>-0.6629769320150443</v>
+      </c>
+      <c r="F73">
+        <v>0.01206586103067934</v>
+      </c>
+      <c r="G73">
+        <v>0.07541568089809961</v>
+      </c>
+      <c r="H73">
+        <v>0.07660216969658043</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1084179132572939</v>
+        <v>0.09772813752265057</v>
       </c>
       <c r="C74">
-        <v>-0.0706183217211734</v>
+        <v>0.09258983280991454</v>
       </c>
       <c r="D74">
-        <v>-0.005459495823286019</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.002283190235597713</v>
+      </c>
+      <c r="E74">
+        <v>0.07815343569070311</v>
+      </c>
+      <c r="F74">
+        <v>-0.07424883507140168</v>
+      </c>
+      <c r="G74">
+        <v>0.05728817937579014</v>
+      </c>
+      <c r="H74">
+        <v>0.01350296963621263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2487414991648691</v>
+        <v>0.2253616437888564</v>
       </c>
       <c r="C75">
-        <v>-0.1269926792674456</v>
+        <v>0.1658920007425482</v>
       </c>
       <c r="D75">
-        <v>0.07305525046593797</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09822993210901491</v>
+      </c>
+      <c r="E75">
+        <v>0.1036124840269647</v>
+      </c>
+      <c r="F75">
+        <v>0.008682390001571214</v>
+      </c>
+      <c r="G75">
+        <v>0.05591132108850343</v>
+      </c>
+      <c r="H75">
+        <v>0.09620396964282769</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1364004286531505</v>
+        <v>0.1240338478055697</v>
       </c>
       <c r="C76">
-        <v>-0.09231199713389539</v>
+        <v>0.1140344549827977</v>
       </c>
       <c r="D76">
-        <v>0.01178015575943872</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.009247385046131189</v>
+      </c>
+      <c r="E76">
+        <v>0.1174203914879272</v>
+      </c>
+      <c r="F76">
+        <v>-0.02317563473308547</v>
+      </c>
+      <c r="G76">
+        <v>0.0316736130425745</v>
+      </c>
+      <c r="H76">
+        <v>0.0007664589342186008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.05057409712387177</v>
+        <v>0.05844258616153256</v>
       </c>
       <c r="C77">
-        <v>-0.07314662471021337</v>
+        <v>0.07045034941604199</v>
       </c>
       <c r="D77">
-        <v>-0.04443202520634054</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1248627442356108</v>
+      </c>
+      <c r="E77">
+        <v>0.2359212157637037</v>
+      </c>
+      <c r="F77">
+        <v>0.2834978776318078</v>
+      </c>
+      <c r="G77">
+        <v>-0.2345676013286128</v>
+      </c>
+      <c r="H77">
+        <v>0.7620148003798126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03862408424803462</v>
+        <v>0.04360761859911087</v>
       </c>
       <c r="C78">
-        <v>-0.05894289716004614</v>
+        <v>0.06948086355581559</v>
       </c>
       <c r="D78">
-        <v>-0.1222811055452833</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1358194670080602</v>
+      </c>
+      <c r="E78">
+        <v>0.01237165480539385</v>
+      </c>
+      <c r="F78">
+        <v>-0.0115076600512049</v>
+      </c>
+      <c r="G78">
+        <v>-0.0007779586553211045</v>
+      </c>
+      <c r="H78">
+        <v>0.01310487766027</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02784955978393467</v>
+        <v>0.04648630851943308</v>
       </c>
       <c r="C79">
-        <v>-0.07941807766767466</v>
+        <v>0.09622949585549744</v>
       </c>
       <c r="D79">
-        <v>0.07173748057134871</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02205987191523304</v>
+      </c>
+      <c r="E79">
+        <v>0.2224309912453875</v>
+      </c>
+      <c r="F79">
+        <v>-0.1613012960417183</v>
+      </c>
+      <c r="G79">
+        <v>0.804996056407436</v>
+      </c>
+      <c r="H79">
+        <v>0.06246564104775392</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02906040604504672</v>
+        <v>0.02423444633827286</v>
       </c>
       <c r="C80">
-        <v>-0.03973984592563878</v>
+        <v>0.04664156828268718</v>
       </c>
       <c r="D80">
-        <v>-0.01129706968221243</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02202445008459843</v>
+      </c>
+      <c r="E80">
+        <v>0.02396521160943509</v>
+      </c>
+      <c r="F80">
+        <v>-0.00222294531703401</v>
+      </c>
+      <c r="G80">
+        <v>-0.02790516550832216</v>
+      </c>
+      <c r="H80">
+        <v>-0.05433347818783471</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1399932614822278</v>
+        <v>0.124153374048173</v>
       </c>
       <c r="C81">
-        <v>-0.1043985046412887</v>
+        <v>0.1219759366078184</v>
       </c>
       <c r="D81">
-        <v>0.06262783258345664</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0726435161543466</v>
+      </c>
+      <c r="E81">
+        <v>0.1132496793214197</v>
+      </c>
+      <c r="F81">
+        <v>-0.02127315984340296</v>
+      </c>
+      <c r="G81">
+        <v>0.03825967391036755</v>
+      </c>
+      <c r="H81">
+        <v>0.02676748306274974</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3057191826263652</v>
+        <v>0.2544495701754989</v>
       </c>
       <c r="C82">
-        <v>-0.2730001751375062</v>
+        <v>0.2686908897516773</v>
       </c>
       <c r="D82">
-        <v>0.23899252611851</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2456769272976387</v>
+      </c>
+      <c r="E82">
+        <v>-0.02150130842530954</v>
+      </c>
+      <c r="F82">
+        <v>-0.05989916646348006</v>
+      </c>
+      <c r="G82">
+        <v>-0.1195205892794498</v>
+      </c>
+      <c r="H82">
+        <v>0.1745417697915468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02709071063370089</v>
+        <v>0.02115991880790952</v>
       </c>
       <c r="C83">
-        <v>-0.05187191584583925</v>
+        <v>0.05059475616211378</v>
       </c>
       <c r="D83">
-        <v>-0.04471121138342857</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04691159876144009</v>
+      </c>
+      <c r="E83">
+        <v>0.01563452958748724</v>
+      </c>
+      <c r="F83">
+        <v>0.04887170862068432</v>
+      </c>
+      <c r="G83">
+        <v>-0.05015472631875047</v>
+      </c>
+      <c r="H83">
+        <v>0.09908113929463988</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0006306609721513381</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004506721427503211</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01847943105778166</v>
+      </c>
+      <c r="E84">
+        <v>0.01955543368346695</v>
+      </c>
+      <c r="F84">
+        <v>-0.009703733107609292</v>
+      </c>
+      <c r="G84">
+        <v>-0.00593797050161179</v>
+      </c>
+      <c r="H84">
+        <v>-0.01940169944935094</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1734560507711598</v>
+        <v>0.1549532592790178</v>
       </c>
       <c r="C85">
-        <v>-0.1050735438346923</v>
+        <v>0.137383792961856</v>
       </c>
       <c r="D85">
-        <v>0.03098434902131393</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05732477967761658</v>
+      </c>
+      <c r="E85">
+        <v>0.05041124645103161</v>
+      </c>
+      <c r="F85">
+        <v>-0.03112443080973451</v>
+      </c>
+      <c r="G85">
+        <v>0.1091287959999761</v>
+      </c>
+      <c r="H85">
+        <v>-0.02742022299766202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01180939395151073</v>
+        <v>0.01913816532535821</v>
       </c>
       <c r="C86">
-        <v>-0.03832909914884142</v>
+        <v>0.02522477137498379</v>
       </c>
       <c r="D86">
-        <v>-0.128741470159722</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1195903255685783</v>
+      </c>
+      <c r="E86">
+        <v>0.00425133074798451</v>
+      </c>
+      <c r="F86">
+        <v>0.01630065313976057</v>
+      </c>
+      <c r="G86">
+        <v>-0.03716790781032255</v>
+      </c>
+      <c r="H86">
+        <v>0.07381392937516087</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02576071103255398</v>
+        <v>0.03481330869798035</v>
       </c>
       <c r="C87">
-        <v>-0.01056883514083518</v>
+        <v>0.02549579228491516</v>
       </c>
       <c r="D87">
-        <v>-0.09968367700817073</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1396522764823001</v>
+      </c>
+      <c r="E87">
+        <v>0.07424816363523871</v>
+      </c>
+      <c r="F87">
+        <v>0.003178586577165974</v>
+      </c>
+      <c r="G87">
+        <v>-0.02563580896266278</v>
+      </c>
+      <c r="H87">
+        <v>-0.02903556247824558</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07438493283865281</v>
+        <v>0.06809249622180957</v>
       </c>
       <c r="C88">
-        <v>-0.03944957151399762</v>
+        <v>0.05472849779003861</v>
       </c>
       <c r="D88">
-        <v>-0.05102981649787165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0266009581501622</v>
+      </c>
+      <c r="E88">
+        <v>0.001318484264742873</v>
+      </c>
+      <c r="F88">
+        <v>-0.02300454700104924</v>
+      </c>
+      <c r="G88">
+        <v>0.004536120331493523</v>
+      </c>
+      <c r="H88">
+        <v>-0.02935550837561562</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2361147945884966</v>
+        <v>0.2861048619553678</v>
       </c>
       <c r="C89">
-        <v>0.391089595501391</v>
+        <v>-0.3486478645204438</v>
       </c>
       <c r="D89">
-        <v>0.03090461868154664</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001784920615444222</v>
+      </c>
+      <c r="E89">
+        <v>0.04163373128441939</v>
+      </c>
+      <c r="F89">
+        <v>0.0395435598591518</v>
+      </c>
+      <c r="G89">
+        <v>0.02810262620787157</v>
+      </c>
+      <c r="H89">
+        <v>-0.07439349050915711</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2095315110448165</v>
+        <v>0.2433804242315592</v>
       </c>
       <c r="C90">
-        <v>0.2911675395009795</v>
+        <v>-0.2478252637073551</v>
       </c>
       <c r="D90">
-        <v>0.002374170920505038</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02089252247620462</v>
+      </c>
+      <c r="E90">
+        <v>0.0523286908268478</v>
+      </c>
+      <c r="F90">
+        <v>-0.003542376548704954</v>
+      </c>
+      <c r="G90">
+        <v>-0.06633610287625874</v>
+      </c>
+      <c r="H90">
+        <v>-0.010173678936943</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1773887248065845</v>
+        <v>0.1550169210120454</v>
       </c>
       <c r="C91">
-        <v>-0.1469159276323723</v>
+        <v>0.1576840244285963</v>
       </c>
       <c r="D91">
-        <v>0.08214722864190449</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08410828348740791</v>
+      </c>
+      <c r="E91">
+        <v>0.1079887014911936</v>
+      </c>
+      <c r="F91">
+        <v>-0.02089585043563878</v>
+      </c>
+      <c r="G91">
+        <v>0.1021021687804456</v>
+      </c>
+      <c r="H91">
+        <v>0.06332370892307325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1846407260631802</v>
+        <v>0.2296945240178544</v>
       </c>
       <c r="C92">
-        <v>0.2847279474696393</v>
+        <v>-0.2681853654794203</v>
       </c>
       <c r="D92">
-        <v>-0.01294550357419783</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03066044339239936</v>
+      </c>
+      <c r="E92">
+        <v>0.09278408293534393</v>
+      </c>
+      <c r="F92">
+        <v>-0.002420250569514481</v>
+      </c>
+      <c r="G92">
+        <v>-0.03832766127705749</v>
+      </c>
+      <c r="H92">
+        <v>0.006258262785438338</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2341594599894805</v>
+        <v>0.2654129248588878</v>
       </c>
       <c r="C93">
-        <v>0.302055953952603</v>
+        <v>-0.2584543868198868</v>
       </c>
       <c r="D93">
-        <v>-0.00667806413270201</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001759006451269468</v>
+      </c>
+      <c r="E93">
+        <v>0.006109901479374627</v>
+      </c>
+      <c r="F93">
+        <v>-0.01680857541902991</v>
+      </c>
+      <c r="G93">
+        <v>0.009740050373903351</v>
+      </c>
+      <c r="H93">
+        <v>-0.01760933154446248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3822999591844719</v>
+        <v>0.3308775476598262</v>
       </c>
       <c r="C94">
-        <v>-0.2315871802642725</v>
+        <v>0.2668534657495854</v>
       </c>
       <c r="D94">
-        <v>0.4427471256756274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.427357448579648</v>
+      </c>
+      <c r="E94">
+        <v>0.08933576524551504</v>
+      </c>
+      <c r="F94">
+        <v>0.01981184326722732</v>
+      </c>
+      <c r="G94">
+        <v>-0.3225344459769953</v>
+      </c>
+      <c r="H94">
+        <v>-0.3626233697784581</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.077204071637133</v>
+        <v>0.06957293066425085</v>
       </c>
       <c r="C95">
-        <v>-0.06338189729990339</v>
+        <v>0.06695406467908109</v>
       </c>
       <c r="D95">
-        <v>-0.1155659724953602</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07607677785574436</v>
+      </c>
+      <c r="E95">
+        <v>0.04178513953789938</v>
+      </c>
+      <c r="F95">
+        <v>0.9002350885582515</v>
+      </c>
+      <c r="G95">
+        <v>0.1971808855620913</v>
+      </c>
+      <c r="H95">
+        <v>-0.238775392021483</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1694073351323029</v>
+        <v>0.1613399158099667</v>
       </c>
       <c r="C98">
-        <v>-0.03293662853425781</v>
+        <v>0.06970138059959737</v>
       </c>
       <c r="D98">
-        <v>-0.1714115565693611</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1215076675977068</v>
+      </c>
+      <c r="E98">
+        <v>-0.3168139608417886</v>
+      </c>
+      <c r="F98">
+        <v>-0.0347766946002652</v>
+      </c>
+      <c r="G98">
+        <v>0.06001594390487801</v>
+      </c>
+      <c r="H98">
+        <v>0.06584767275063604</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002022391799623536</v>
+        <v>0.00443718197911275</v>
       </c>
       <c r="C101">
-        <v>-0.01850838079539086</v>
+        <v>0.02135530739335507</v>
       </c>
       <c r="D101">
-        <v>-0.07379276808539582</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09278881377870075</v>
+      </c>
+      <c r="E101">
+        <v>0.0257007063484816</v>
+      </c>
+      <c r="F101">
+        <v>-0.01833162915274245</v>
+      </c>
+      <c r="G101">
+        <v>-0.01848916194261492</v>
+      </c>
+      <c r="H101">
+        <v>-0.0870193492743737</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1238948770328428</v>
+        <v>0.1045246802559072</v>
       </c>
       <c r="C102">
-        <v>-0.1200323992530493</v>
+        <v>0.1219193495207026</v>
       </c>
       <c r="D102">
-        <v>0.04822138156935551</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0645513016312374</v>
+      </c>
+      <c r="E102">
+        <v>0.02463469309096858</v>
+      </c>
+      <c r="F102">
+        <v>0.02116922052423023</v>
+      </c>
+      <c r="G102">
+        <v>0.008378734266907505</v>
+      </c>
+      <c r="H102">
+        <v>0.05835323312540781</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
